--- a/ai_tool_quality/modules/output/Questionnaire_submissions.xlsx
+++ b/ai_tool_quality/modules/output/Questionnaire_submissions.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_wissen\jacobs_aiops_project\ai_tool_quality\modules\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\jserviceops\jserviceops\ai_tool_quality\modules\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23123D86-7E61-439A-94AE-B7F1F3FBBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CBB39-CDB0-4FB7-A9CD-32C503EB329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submissions" sheetId="1" r:id="rId1"/>
+    <sheet name="Score" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -674,13 +675,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -843,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -869,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -907,4 +908,156 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BEEC15-788B-40B7-9633-D2DF0E949DA3}">
+  <dimension ref="A1:AS1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>